--- a/downloadfiles/EventActivitySummaryReport.xlsx
+++ b/downloadfiles/EventActivitySummaryReport.xlsx
@@ -604,7 +604,7 @@
         <v>45555.88613492436</v>
       </c>
       <c r="P2" s="2">
-        <v>45555.9703557978</v>
+        <v>45560.59709571685</v>
       </c>
       <c r="Q2">
         <v>49</v>
